--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/16/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/16/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5725725725725725</v>
+        <v>0.9175917591759176</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1243.243243243243</v>
+        <v>1575.307530753075</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009309309309309309</v>
+        <v>0.07111711171117112</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7587587587587588</v>
+        <v>0.1994199419941994</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>946.946946946947</v>
+        <v>1406.190619061906</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>433.4334334334335</v>
+        <v>685.5085508550856</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>391.3913913913914</v>
+        <v>118.6939693969397</v>
       </c>
     </row>
   </sheetData>
